--- a/заказы/филиалы и опт/2024/08,24/06,08,24 Ост КИ филиалы/дв 06,08,24 бррсч ост ки от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/08,24/06,08,24 Ост КИ филиалы/дв 06,08,24 бррсч ост ки от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\06,08,24 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\08,24\06,08,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC7D815-59E0-4D8C-8691-A7C39013F83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0A1D1-7DA4-4B12-A4B4-49B23AE465E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AE$106</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -997,10 +997,10 @@
   <dimension ref="A1:AY493"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="V86" sqref="V86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1614,10 @@
       <c r="U7" s="5">
         <v>100</v>
       </c>
-      <c r="V7" s="1"/>
+      <c r="V7" s="16">
+        <f>Y7/(Z7/100)-100</f>
+        <v>45.479415933287186</v>
+      </c>
       <c r="W7" s="1">
         <f>(F7+N7+O7+R7)/P7</f>
         <v>15.488687102867937</v>
@@ -2401,7 +2404,10 @@
       <c r="U14" s="5">
         <v>250</v>
       </c>
-      <c r="V14" s="1"/>
+      <c r="V14" s="1">
+        <f>(234/5)/(Y14/100)-100</f>
+        <v>-4.0983606557377072</v>
+      </c>
       <c r="W14" s="1">
         <f t="shared" si="8"/>
         <v>20.141242937853107</v>
@@ -3629,7 +3635,10 @@
       <c r="U25" s="5">
         <v>700</v>
       </c>
-      <c r="V25" s="1"/>
+      <c r="V25" s="16">
+        <f>P25/(Y25/100)-100</f>
+        <v>26.938775510204096</v>
+      </c>
       <c r="W25" s="1">
         <f t="shared" ref="W25:W28" si="14">(F25+N25+O25+R25)/P25</f>
         <v>13.954983922829582</v>
@@ -6057,7 +6066,10 @@
       <c r="U47" s="5">
         <v>250</v>
       </c>
-      <c r="V47" s="1"/>
+      <c r="V47" s="16">
+        <f>P47/(Z47/100)-100</f>
+        <v>27.777777777777786</v>
+      </c>
       <c r="W47" s="1">
         <f t="shared" si="28"/>
         <v>13.478260869565217</v>
@@ -7148,7 +7160,10 @@
       <c r="U57" s="5">
         <v>70</v>
       </c>
-      <c r="V57" s="1"/>
+      <c r="V57" s="16">
+        <f>Y57/(Z57/100)-100</f>
+        <v>33.095943394778431</v>
+      </c>
       <c r="W57" s="1">
         <f t="shared" ref="W57:W58" si="33">(F57+N57+O57+R57)/P57</f>
         <v>20.916356037501412</v>
@@ -9414,7 +9429,10 @@
       <c r="U77" s="5">
         <v>300</v>
       </c>
-      <c r="V77" s="1"/>
+      <c r="V77" s="16">
+        <f>Y77/(Z77/100)-100</f>
+        <v>32.098765432098759</v>
+      </c>
       <c r="W77" s="1">
         <f t="shared" si="47"/>
         <v>13.837209302325581</v>
@@ -10200,7 +10218,10 @@
       <c r="U84" s="5">
         <v>200</v>
       </c>
-      <c r="V84" s="1"/>
+      <c r="V84" s="16">
+        <f>P84/(Y84/100)-100</f>
+        <v>18.055555555555543</v>
+      </c>
       <c r="W84" s="1">
         <f t="shared" si="47"/>
         <v>16.058823529411764</v>
@@ -10310,7 +10331,10 @@
       <c r="U85" s="5">
         <v>50</v>
       </c>
-      <c r="V85" s="1"/>
+      <c r="V85" s="16">
+        <f>Y85/(Z85/100)-100</f>
+        <v>168.15827911299959</v>
+      </c>
       <c r="W85" s="1">
         <f t="shared" si="47"/>
         <v>16.800295130349237</v>
@@ -10422,7 +10446,10 @@
       <c r="U86" s="5">
         <v>30</v>
       </c>
-      <c r="V86" s="1"/>
+      <c r="V86" s="16">
+        <f>Y86/(Z86/100)-100</f>
+        <v>47.368421052631561</v>
+      </c>
       <c r="W86" s="1">
         <f t="shared" si="47"/>
         <v>19.25</v>
@@ -10535,7 +10562,10 @@
       <c r="U87" s="5">
         <v>50</v>
       </c>
-      <c r="V87" s="1"/>
+      <c r="V87" s="16">
+        <f>P87/(Y87/100)-100</f>
+        <v>178.48999784899979</v>
+      </c>
       <c r="W87" s="1">
         <f t="shared" si="47"/>
         <v>13.741407275816792</v>
@@ -10646,7 +10676,10 @@
       <c r="U88" s="5">
         <v>60</v>
       </c>
-      <c r="V88" s="1"/>
+      <c r="V88" s="16">
+        <f>P88/(Y88/100)-100</f>
+        <v>113.42857142857144</v>
+      </c>
       <c r="W88" s="1">
         <f t="shared" si="47"/>
         <v>14.190093708165996</v>
@@ -10978,7 +11011,10 @@
       <c r="U91" s="5">
         <v>150</v>
       </c>
-      <c r="V91" s="1"/>
+      <c r="V91" s="16">
+        <f>P91/(Y91/100)-100</f>
+        <v>80.769230769230774</v>
+      </c>
       <c r="W91" s="1">
         <f t="shared" si="47"/>
         <v>13.723404255319148</v>
@@ -12114,7 +12150,10 @@
       <c r="U101" s="5">
         <v>150</v>
       </c>
-      <c r="V101" s="1"/>
+      <c r="V101" s="16">
+        <f>Y101/(Z101/100)-100</f>
+        <v>27.128267477203664</v>
+      </c>
       <c r="W101" s="1">
         <f t="shared" si="47"/>
         <v>15.857816951566953</v>
